--- a/テーブル定義書修正.xlsx
+++ b/テーブル定義書修正.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\blog-project\Personal-development\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7244DB6-A72D-4DD8-8541-9E26EEFE0772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B96CF2A-5F0E-4A40-A9F7-2EE0D894F67B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6444" yWindow="1548" windowWidth="13332" windowHeight="8964" activeTab="2" xr2:uid="{A92F7A29-7014-4762-89BD-D5CB5A9667FB}"/>
+    <workbookView xWindow="9084" yWindow="1488" windowWidth="13332" windowHeight="8964" activeTab="3" xr2:uid="{A92F7A29-7014-4762-89BD-D5CB5A9667FB}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="2" r:id="rId1"/>
@@ -1070,205 +1070,205 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyBorder="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1294,15 +1294,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>601980</xdr:colOff>
+      <xdr:colOff>601979</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>258742</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>49380</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>293793</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1325,8 +1325,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="601980" y="251460"/>
-          <a:ext cx="2704762" cy="1200000"/>
+          <a:off x="601979" y="251460"/>
+          <a:ext cx="4568614" cy="2026920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1635,12 +1635,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCDA08ED-AD07-499B-BB1C-B77768B3327D}">
-  <sheetPr>
+  <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.4" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1683,7 +1685,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="5"/>
-      <c r="C4" s="81" t="s">
+      <c r="C4" s="45" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="6"/>
@@ -1705,7 +1707,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1575650A-5253-4CB8-9ED1-48D509E76A92}">
-  <sheetPr>
+  <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:G47"/>
@@ -1728,110 +1730,110 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="33" t="s">
+      <c r="C2" s="76"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="26"/>
+      <c r="G2" s="80"/>
     </row>
     <row r="3" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="34" t="s">
+      <c r="C3" s="78"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="27"/>
+      <c r="G3" s="81"/>
     </row>
     <row r="4" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="34" t="s">
+      <c r="D4" s="79"/>
+      <c r="E4" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="27"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="81"/>
     </row>
     <row r="5" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="34" t="s">
+      <c r="C5" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="79"/>
+      <c r="E5" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="27"/>
+      <c r="G5" s="81"/>
     </row>
     <row r="6" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="27"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="81"/>
     </row>
     <row r="7" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="28"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="66"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="29"/>
+      <c r="B8" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="69"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="21"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="29"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="69"/>
     </row>
     <row r="10" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="24"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="30"/>
+      <c r="B10" s="71"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="73"/>
     </row>
     <row r="12" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
@@ -1842,22 +1844,22 @@
       <c r="A13" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="C13" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="33" t="s">
+      <c r="D13" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="33" t="s">
+      <c r="E13" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="33" t="s">
+      <c r="F13" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="42" t="s">
+      <c r="G13" s="26" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1865,22 +1867,22 @@
       <c r="A14" s="7">
         <v>1</v>
       </c>
-      <c r="B14" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="41" t="s">
+      <c r="B14" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="41" t="s">
+      <c r="D14" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="41" t="s">
+      <c r="E14" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="44" t="s">
+      <c r="F14" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="28" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1888,22 +1890,22 @@
       <c r="A15" s="3">
         <v>2</v>
       </c>
-      <c r="B15" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="39" t="s">
+      <c r="B15" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="39" t="s">
+      <c r="D15" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="46" t="s">
+      <c r="E15" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="30" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1911,22 +1913,22 @@
       <c r="A16" s="3">
         <v>3</v>
       </c>
-      <c r="B16" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="39" t="s">
+      <c r="B16" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="39" t="s">
+      <c r="D16" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="46" t="s">
+      <c r="E16" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="30" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1934,22 +1936,22 @@
       <c r="A17" s="4">
         <v>4</v>
       </c>
-      <c r="B17" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="40" t="s">
+      <c r="B17" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="40" t="s">
+      <c r="D17" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="48" t="s">
+      <c r="E17" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="32" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1962,41 +1964,41 @@
       <c r="A20" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="49" t="s">
+      <c r="C20" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="50"/>
-      <c r="E20" s="33" t="s">
+      <c r="D20" s="34"/>
+      <c r="E20" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="F20" s="33" t="s">
+      <c r="F20" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="G20" s="42" t="s">
+      <c r="G20" s="26" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="36">
+      <c r="A21" s="20">
         <v>1</v>
       </c>
-      <c r="B21" s="37" t="s">
+      <c r="B21" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="51" t="s">
+      <c r="C21" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="52"/>
-      <c r="E21" s="37" t="s">
+      <c r="D21" s="75"/>
+      <c r="E21" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="F21" s="37" t="s">
+      <c r="F21" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="G21" s="38"/>
+      <c r="G21" s="22"/>
     </row>
     <row r="23" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
@@ -2007,52 +2009,52 @@
       <c r="A24" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="33" t="s">
+      <c r="B24" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="33" t="s">
+      <c r="C24" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="49" t="s">
+      <c r="D24" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="54"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="36"/>
     </row>
     <row r="25" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>1</v>
       </c>
-      <c r="B25" s="41" t="s">
+      <c r="B25" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="41" t="s">
+      <c r="C25" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="55" t="s">
+      <c r="D25" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="57"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="63"/>
     </row>
     <row r="26" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>2</v>
       </c>
-      <c r="B26" s="40" t="s">
+      <c r="B26" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="40" t="s">
+      <c r="C26" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="58" t="s">
+      <c r="D26" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="E26" s="59"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="60"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="49"/>
     </row>
     <row r="28" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
@@ -2060,21 +2062,21 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="61" t="s">
+      <c r="A29" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="62" t="s">
+      <c r="B29" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="63" t="s">
+      <c r="C29" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="64"/>
-      <c r="E29" s="65" t="s">
+      <c r="D29" s="40"/>
+      <c r="E29" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="F29" s="66"/>
-      <c r="G29" s="67" t="s">
+      <c r="F29" s="59"/>
+      <c r="G29" s="41" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2087,37 +2089,37 @@
       <c r="A32" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="33" t="s">
+      <c r="B32" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C32" s="49" t="s">
+      <c r="C32" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="50"/>
-      <c r="E32" s="70" t="s">
+      <c r="D32" s="34"/>
+      <c r="E32" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="F32" s="71"/>
-      <c r="G32" s="42" t="s">
+      <c r="F32" s="55"/>
+      <c r="G32" s="26" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="36">
+      <c r="A33" s="20">
         <v>1</v>
       </c>
-      <c r="B33" s="37" t="s">
+      <c r="B33" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C33" s="68" t="s">
+      <c r="C33" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="D33" s="69"/>
-      <c r="E33" s="68" t="s">
+      <c r="D33" s="57"/>
+      <c r="E33" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="F33" s="69"/>
-      <c r="G33" s="38" t="s">
+      <c r="F33" s="57"/>
+      <c r="G33" s="22" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2127,21 +2129,21 @@
       </c>
     </row>
     <row r="36" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="61" t="s">
+      <c r="A36" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="62" t="s">
+      <c r="B36" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="C36" s="63" t="s">
+      <c r="C36" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="D36" s="64"/>
-      <c r="E36" s="65" t="s">
+      <c r="D36" s="40"/>
+      <c r="E36" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="F36" s="66"/>
-      <c r="G36" s="67" t="s">
+      <c r="F36" s="59"/>
+      <c r="G36" s="41" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2154,164 +2156,139 @@
       <c r="A39" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B39" s="49" t="s">
+      <c r="B39" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="C39" s="50"/>
-      <c r="D39" s="49" t="s">
+      <c r="C39" s="34"/>
+      <c r="D39" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="E39" s="53"/>
-      <c r="F39" s="53"/>
-      <c r="G39" s="54"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="36"/>
     </row>
     <row r="40" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A40" s="75">
+      <c r="A40" s="42">
         <v>1</v>
       </c>
-      <c r="B40" s="55" t="s">
+      <c r="B40" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="C40" s="76"/>
-      <c r="D40" s="55" t="s">
+      <c r="C40" s="61"/>
+      <c r="D40" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="E40" s="56"/>
-      <c r="F40" s="56"/>
-      <c r="G40" s="57"/>
+      <c r="E40" s="62"/>
+      <c r="F40" s="62"/>
+      <c r="G40" s="63"/>
     </row>
     <row r="41" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A41" s="77">
+      <c r="A41" s="43">
         <v>2</v>
       </c>
-      <c r="B41" s="72" t="s">
+      <c r="B41" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="C41" s="78"/>
-      <c r="D41" s="72" t="s">
+      <c r="C41" s="51"/>
+      <c r="D41" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="E41" s="73"/>
-      <c r="F41" s="73"/>
-      <c r="G41" s="74"/>
+      <c r="E41" s="52"/>
+      <c r="F41" s="52"/>
+      <c r="G41" s="53"/>
     </row>
     <row r="42" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A42" s="77">
+      <c r="A42" s="43">
         <v>3</v>
       </c>
-      <c r="B42" s="72" t="s">
+      <c r="B42" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="C42" s="78"/>
-      <c r="D42" s="72" t="s">
+      <c r="C42" s="51"/>
+      <c r="D42" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="E42" s="73"/>
-      <c r="F42" s="73"/>
-      <c r="G42" s="74"/>
+      <c r="E42" s="52"/>
+      <c r="F42" s="52"/>
+      <c r="G42" s="53"/>
     </row>
     <row r="43" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A43" s="77">
+      <c r="A43" s="43">
         <v>4</v>
       </c>
-      <c r="B43" s="72" t="s">
+      <c r="B43" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="C43" s="78"/>
-      <c r="D43" s="72" t="s">
-        <v>12</v>
-      </c>
-      <c r="E43" s="73"/>
-      <c r="F43" s="73"/>
-      <c r="G43" s="74"/>
+      <c r="C43" s="51"/>
+      <c r="D43" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" s="52"/>
+      <c r="F43" s="52"/>
+      <c r="G43" s="53"/>
     </row>
     <row r="44" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A44" s="77">
+      <c r="A44" s="43">
         <v>5</v>
       </c>
-      <c r="B44" s="72" t="s">
+      <c r="B44" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="C44" s="78"/>
-      <c r="D44" s="72" t="s">
+      <c r="C44" s="51"/>
+      <c r="D44" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="E44" s="73"/>
-      <c r="F44" s="73"/>
-      <c r="G44" s="74"/>
+      <c r="E44" s="52"/>
+      <c r="F44" s="52"/>
+      <c r="G44" s="53"/>
     </row>
     <row r="45" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A45" s="77">
+      <c r="A45" s="43">
         <v>6</v>
       </c>
-      <c r="B45" s="72" t="s">
+      <c r="B45" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="C45" s="78"/>
-      <c r="D45" s="72" t="s">
+      <c r="C45" s="51"/>
+      <c r="D45" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="E45" s="73"/>
-      <c r="F45" s="73"/>
-      <c r="G45" s="74"/>
+      <c r="E45" s="52"/>
+      <c r="F45" s="52"/>
+      <c r="G45" s="53"/>
     </row>
     <row r="46" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A46" s="77">
+      <c r="A46" s="43">
         <v>7</v>
       </c>
-      <c r="B46" s="72" t="s">
+      <c r="B46" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="C46" s="78"/>
-      <c r="D46" s="72" t="s">
+      <c r="C46" s="51"/>
+      <c r="D46" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="E46" s="73"/>
-      <c r="F46" s="73"/>
-      <c r="G46" s="74"/>
+      <c r="E46" s="52"/>
+      <c r="F46" s="52"/>
+      <c r="G46" s="53"/>
     </row>
     <row r="47" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="79">
+      <c r="A47" s="44">
         <v>8</v>
       </c>
-      <c r="B47" s="58" t="s">
+      <c r="B47" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="C47" s="80"/>
-      <c r="D47" s="58" t="s">
+      <c r="C47" s="47"/>
+      <c r="D47" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="E47" s="59"/>
-      <c r="F47" s="59"/>
-      <c r="G47" s="60"/>
+      <c r="E47" s="48"/>
+      <c r="F47" s="48"/>
+      <c r="G47" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G10"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="D26:G26"/>
     <mergeCell ref="E29:F29"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
@@ -2323,6 +2300,31 @@
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G10"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:G46"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2336,12 +2338,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5EA3850-1979-486C-8F82-BE74D5FF92C1}">
-  <sheetPr>
+  <sheetPr codeName="Sheet3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A23" workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
@@ -2361,110 +2363,110 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="33" t="s">
+      <c r="C2" s="76"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="26"/>
+      <c r="G2" s="80"/>
     </row>
     <row r="3" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="34" t="s">
+      <c r="C3" s="78"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="27"/>
+      <c r="G3" s="81"/>
     </row>
     <row r="4" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="34" t="s">
+      <c r="D4" s="79"/>
+      <c r="E4" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="27"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="81"/>
     </row>
     <row r="5" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="34" t="s">
+      <c r="C5" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="79"/>
+      <c r="E5" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="27"/>
+      <c r="G5" s="81"/>
     </row>
     <row r="6" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="78" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="27"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="81"/>
     </row>
     <row r="7" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="28"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="66"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="29"/>
+      <c r="B8" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="69"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="21"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="29"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="69"/>
     </row>
     <row r="10" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="24"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="30"/>
+      <c r="B10" s="71"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="73"/>
     </row>
     <row r="12" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
@@ -2475,22 +2477,22 @@
       <c r="A13" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="C13" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="33" t="s">
+      <c r="D13" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="33" t="s">
+      <c r="E13" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="33" t="s">
+      <c r="F13" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="42" t="s">
+      <c r="G13" s="26" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2498,22 +2500,22 @@
       <c r="A14" s="7">
         <v>1</v>
       </c>
-      <c r="B14" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="41" t="s">
+      <c r="B14" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="D14" s="41" t="s">
+      <c r="D14" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="41" t="s">
+      <c r="E14" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="44" t="s">
+      <c r="F14" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="28" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2521,22 +2523,22 @@
       <c r="A15" s="3">
         <v>2</v>
       </c>
-      <c r="B15" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="39" t="s">
+      <c r="B15" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="D15" s="39" t="s">
+      <c r="D15" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="46" t="s">
+      <c r="E15" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="30" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2544,22 +2546,22 @@
       <c r="A16" s="3">
         <v>3</v>
       </c>
-      <c r="B16" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="39" t="s">
+      <c r="B16" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="D16" s="39" t="s">
+      <c r="D16" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="46" t="s">
+      <c r="E16" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="30" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2567,22 +2569,22 @@
       <c r="A17" s="3">
         <v>4</v>
       </c>
-      <c r="B17" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="39" t="s">
+      <c r="B17" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="D17" s="39" t="s">
+      <c r="D17" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="46" t="s">
+      <c r="E17" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="30" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2590,22 +2592,22 @@
       <c r="A18" s="3">
         <v>5</v>
       </c>
-      <c r="B18" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="39" t="s">
+      <c r="B18" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="39" t="s">
+      <c r="D18" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="46" t="s">
+      <c r="E18" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="30" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2613,22 +2615,22 @@
       <c r="A19" s="4">
         <v>6</v>
       </c>
-      <c r="B19" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="40" t="s">
+      <c r="B19" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="D19" s="40" t="s">
+      <c r="D19" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="E19" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="48" t="s">
+      <c r="E19" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="32" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2641,41 +2643,41 @@
       <c r="A22" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="33" t="s">
+      <c r="B22" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="49" t="s">
+      <c r="C22" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="50"/>
-      <c r="E22" s="33" t="s">
+      <c r="D22" s="34"/>
+      <c r="E22" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="F22" s="33" t="s">
+      <c r="F22" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="G22" s="42" t="s">
+      <c r="G22" s="26" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="36">
+      <c r="A23" s="20">
         <v>1</v>
       </c>
-      <c r="B23" s="37" t="s">
+      <c r="B23" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="C23" s="51" t="s">
+      <c r="C23" s="74" t="s">
         <v>76</v>
       </c>
-      <c r="D23" s="52"/>
-      <c r="E23" s="37" t="s">
+      <c r="D23" s="75"/>
+      <c r="E23" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="F23" s="37" t="s">
+      <c r="F23" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="G23" s="38"/>
+      <c r="G23" s="22"/>
     </row>
     <row r="25" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
@@ -2686,52 +2688,52 @@
       <c r="A26" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B26" s="33" t="s">
+      <c r="B26" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="33" t="s">
+      <c r="C26" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="D26" s="49" t="s">
+      <c r="D26" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="54"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="36"/>
     </row>
     <row r="27" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>1</v>
       </c>
-      <c r="B27" s="41" t="s">
+      <c r="B27" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="41" t="s">
+      <c r="C27" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="55" t="s">
+      <c r="D27" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="E27" s="56"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="57"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="63"/>
     </row>
     <row r="28" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>2</v>
       </c>
-      <c r="B28" s="40" t="s">
+      <c r="B28" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="C28" s="40" t="s">
+      <c r="C28" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="D28" s="58" t="s">
+      <c r="D28" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="E28" s="59"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="60"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="49"/>
     </row>
     <row r="30" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
@@ -2742,37 +2744,37 @@
       <c r="A31" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="33" t="s">
+      <c r="B31" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C31" s="49" t="s">
+      <c r="C31" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="50"/>
-      <c r="E31" s="70" t="s">
+      <c r="D31" s="34"/>
+      <c r="E31" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="F31" s="71"/>
-      <c r="G31" s="42" t="s">
+      <c r="F31" s="55"/>
+      <c r="G31" s="26" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="36">
+      <c r="A32" s="20">
         <v>1</v>
       </c>
-      <c r="B32" s="37" t="s">
+      <c r="B32" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="68" t="s">
+      <c r="C32" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="69"/>
-      <c r="E32" s="68" t="s">
+      <c r="D32" s="57"/>
+      <c r="E32" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="F32" s="69"/>
-      <c r="G32" s="38" t="s">
+      <c r="F32" s="57"/>
+      <c r="G32" s="22" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2782,21 +2784,21 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="61" t="s">
+      <c r="A35" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="62" t="s">
+      <c r="B35" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="C35" s="63" t="s">
+      <c r="C35" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="D35" s="64"/>
-      <c r="E35" s="65" t="s">
+      <c r="D35" s="40"/>
+      <c r="E35" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="F35" s="66"/>
-      <c r="G35" s="67" t="s">
+      <c r="F35" s="59"/>
+      <c r="G35" s="41" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2806,21 +2808,21 @@
       </c>
     </row>
     <row r="38" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="61" t="s">
+      <c r="A38" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B38" s="62" t="s">
+      <c r="B38" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="C38" s="63" t="s">
+      <c r="C38" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="D38" s="64"/>
-      <c r="E38" s="65" t="s">
+      <c r="D38" s="40"/>
+      <c r="E38" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="F38" s="66"/>
-      <c r="G38" s="67" t="s">
+      <c r="F38" s="59"/>
+      <c r="G38" s="41" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2833,164 +2835,139 @@
       <c r="A41" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B41" s="49" t="s">
+      <c r="B41" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="C41" s="50"/>
-      <c r="D41" s="49" t="s">
+      <c r="C41" s="34"/>
+      <c r="D41" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="E41" s="53"/>
-      <c r="F41" s="53"/>
-      <c r="G41" s="54"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="36"/>
     </row>
     <row r="42" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A42" s="75">
+      <c r="A42" s="42">
         <v>1</v>
       </c>
-      <c r="B42" s="55" t="s">
+      <c r="B42" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="C42" s="76"/>
-      <c r="D42" s="55" t="s">
+      <c r="C42" s="61"/>
+      <c r="D42" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="E42" s="56"/>
-      <c r="F42" s="56"/>
-      <c r="G42" s="57"/>
+      <c r="E42" s="62"/>
+      <c r="F42" s="62"/>
+      <c r="G42" s="63"/>
     </row>
     <row r="43" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A43" s="77">
+      <c r="A43" s="43">
         <v>2</v>
       </c>
-      <c r="B43" s="72" t="s">
+      <c r="B43" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="C43" s="78"/>
-      <c r="D43" s="72" t="s">
+      <c r="C43" s="51"/>
+      <c r="D43" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="E43" s="73"/>
-      <c r="F43" s="73"/>
-      <c r="G43" s="74"/>
+      <c r="E43" s="52"/>
+      <c r="F43" s="52"/>
+      <c r="G43" s="53"/>
     </row>
     <row r="44" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A44" s="77">
+      <c r="A44" s="43">
         <v>3</v>
       </c>
-      <c r="B44" s="72" t="s">
+      <c r="B44" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="C44" s="78"/>
-      <c r="D44" s="72" t="s">
+      <c r="C44" s="51"/>
+      <c r="D44" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="E44" s="73"/>
-      <c r="F44" s="73"/>
-      <c r="G44" s="74"/>
+      <c r="E44" s="52"/>
+      <c r="F44" s="52"/>
+      <c r="G44" s="53"/>
     </row>
     <row r="45" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A45" s="77">
+      <c r="A45" s="43">
         <v>4</v>
       </c>
-      <c r="B45" s="72" t="s">
+      <c r="B45" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="C45" s="78"/>
-      <c r="D45" s="72" t="s">
-        <v>12</v>
-      </c>
-      <c r="E45" s="73"/>
-      <c r="F45" s="73"/>
-      <c r="G45" s="74"/>
+      <c r="C45" s="51"/>
+      <c r="D45" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" s="52"/>
+      <c r="F45" s="52"/>
+      <c r="G45" s="53"/>
     </row>
     <row r="46" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A46" s="77">
+      <c r="A46" s="43">
         <v>5</v>
       </c>
-      <c r="B46" s="72" t="s">
+      <c r="B46" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="C46" s="78"/>
-      <c r="D46" s="72" t="s">
+      <c r="C46" s="51"/>
+      <c r="D46" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="E46" s="73"/>
-      <c r="F46" s="73"/>
-      <c r="G46" s="74"/>
+      <c r="E46" s="52"/>
+      <c r="F46" s="52"/>
+      <c r="G46" s="53"/>
     </row>
     <row r="47" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A47" s="77">
+      <c r="A47" s="43">
         <v>6</v>
       </c>
-      <c r="B47" s="72" t="s">
+      <c r="B47" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="C47" s="78"/>
-      <c r="D47" s="72" t="s">
+      <c r="C47" s="51"/>
+      <c r="D47" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="E47" s="73"/>
-      <c r="F47" s="73"/>
-      <c r="G47" s="74"/>
+      <c r="E47" s="52"/>
+      <c r="F47" s="52"/>
+      <c r="G47" s="53"/>
     </row>
     <row r="48" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A48" s="77">
+      <c r="A48" s="43">
         <v>7</v>
       </c>
-      <c r="B48" s="72" t="s">
+      <c r="B48" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="C48" s="78"/>
-      <c r="D48" s="72" t="s">
+      <c r="C48" s="51"/>
+      <c r="D48" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="E48" s="73"/>
-      <c r="F48" s="73"/>
-      <c r="G48" s="74"/>
+      <c r="E48" s="52"/>
+      <c r="F48" s="52"/>
+      <c r="G48" s="53"/>
     </row>
     <row r="49" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="79">
+      <c r="A49" s="44">
         <v>8</v>
       </c>
-      <c r="B49" s="58" t="s">
+      <c r="B49" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="C49" s="80"/>
-      <c r="D49" s="58" t="s">
+      <c r="C49" s="47"/>
+      <c r="D49" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="E49" s="59"/>
-      <c r="F49" s="59"/>
-      <c r="G49" s="60"/>
+      <c r="E49" s="48"/>
+      <c r="F49" s="48"/>
+      <c r="G49" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G10"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="D28:G28"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
@@ -3002,6 +2979,31 @@
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G10"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:G48"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3015,10 +3017,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{815B7E0A-0211-49E4-925F-7995918197D4}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
